--- a/Gears_Measurements.xlsx
+++ b/Gears_Measurements.xlsx
@@ -47,10 +47,10 @@
     <t>Pitch</t>
   </si>
   <si>
-    <t>Primitive Diameter</t>
-  </si>
-  <si>
     <t>Foot Diameter</t>
+  </si>
+  <si>
+    <t>Primitive Diameter/ Base Circle</t>
   </si>
 </sst>
 </file>
@@ -372,7 +372,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,42 +408,74 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>29.75</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <f>B2/(A2+2)</f>
-        <v>1.3522727272727273</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <f>1/C2</f>
-        <v>0.73949579831932777</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <f>A2/D2</f>
-        <v>27.045454545454543</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <f>C2*PI()</f>
-        <v>4.2482900656498339</v>
+        <v>3.1415926535897931</v>
       </c>
       <c r="G2">
         <f>C2*A2</f>
-        <v>27.045454545454547</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <f>G2-2*C2</f>
-        <v>24.340909090909093</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <f>B3/(A3+2)</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>1/C3</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>A3/D3</f>
+        <v>33</v>
+      </c>
+      <c r="F3">
+        <f>C3*PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="G3">
+        <f>C3*A3</f>
+        <v>33</v>
+      </c>
+      <c r="H3">
+        <f>G3-2*C3</f>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">

--- a/Gears_Measurements.xlsx
+++ b/Gears_Measurements.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Number of Teeth</t>
   </si>
@@ -52,6 +52,12 @@
   <si>
     <t>Primitive Diameter/ Base Circle</t>
   </si>
+  <si>
+    <t>Gear 2</t>
+  </si>
+  <si>
+    <t>Gear 1</t>
+  </si>
 </sst>
 </file>
 
@@ -66,12 +72,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,9 +110,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,129 +399,1417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>25</v>
-      </c>
-      <c r="B2">
-        <v>27</v>
-      </c>
-      <c r="C2">
-        <f>B2/(A2+2)</f>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
-        <f>1/C2</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f>A2/D2</f>
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <f>C2*PI()</f>
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="G2">
-        <f>C2*A2</f>
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <f>G2-2*C2</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <f>B3/(A3+2)</f>
-        <v>1</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="D3">
         <f>1/C3</f>
-        <v>1</v>
+        <v>0.62962962962962965</v>
       </c>
       <c r="E3">
         <f>A3/D3</f>
-        <v>33</v>
+        <v>23.823529411764707</v>
       </c>
       <c r="F3">
         <f>C3*PI()</f>
-        <v>3.1415926535897931</v>
+        <v>4.9895883321720245</v>
       </c>
       <c r="G3">
         <f>C3*A3</f>
-        <v>33</v>
+        <v>23.823529411764703</v>
       </c>
       <c r="H3">
         <f>G3-2*C3</f>
+        <v>20.647058823529409</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>35</v>
+      </c>
+      <c r="K3">
+        <f>J3/(I3+2)</f>
+        <v>1.5909090909090908</v>
+      </c>
+      <c r="L3">
+        <f>1/K3</f>
+        <v>0.62857142857142856</v>
+      </c>
+      <c r="M3">
+        <f>I3/L3</f>
+        <v>31.81818181818182</v>
+      </c>
+      <c r="N3">
+        <f>K3*PI()</f>
+        <v>4.9979883125292162</v>
+      </c>
+      <c r="O3">
+        <f>K3*I3</f>
+        <v>31.818181818181817</v>
+      </c>
+      <c r="P3">
+        <f>O3-2*K3</f>
+        <v>28.636363636363633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C23" si="0">B4/(A4+2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D23" si="1">1/C4</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E23" si="2">A4/D4</f>
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F23" si="3">C4*PI()</f>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G23" si="4">C4*A4</f>
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H23" si="5">G4-2*C4</f>
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>35</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K23" si="6">J4/(I4+2)</f>
+        <v>1.5217391304347827</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L23" si="7">1/K4</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M23" si="8">I4/L4</f>
+        <v>31.956521739130434</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N23" si="9">K4*PI()</f>
+        <v>4.7806844728540332</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O23" si="10">K4*I4</f>
+        <v>31.956521739130437</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P23" si="11">O4-2*K4</f>
+        <v>28.913043478260871</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.4210526315789473</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.70370370370370372</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>24.157894736842106</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>4.4643685077328641</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>24.157894736842106</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="5"/>
+        <v>21.315789473684212</v>
+      </c>
+      <c r="I5">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>35</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>1.4583333333333333</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="7"/>
+        <v>0.68571428571428572</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="8"/>
+        <v>32.083333333333336</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="9"/>
+        <v>4.5814892864851151</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="10"/>
+        <v>32.083333333333329</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="11"/>
+        <v>29.166666666666661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.35</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="2"/>
+        <v>24.3</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="3"/>
+        <v>4.2411500823462207</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="4"/>
+        <v>24.3</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="5"/>
+        <v>21.6</v>
+      </c>
+      <c r="I6">
+        <v>23</v>
+      </c>
+      <c r="J6">
+        <v>35</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>1.4</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="7"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="8"/>
+        <v>32.199999999999996</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="9"/>
+        <v>4.3982297150257104</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="10"/>
+        <v>32.199999999999996</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="11"/>
+        <v>29.399999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>24.428571428571431</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>4.0391905546154483</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>24.428571428571431</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>21.857142857142858</v>
+      </c>
+      <c r="I7" s="3">
+        <v>24</v>
+      </c>
+      <c r="J7" s="3">
+        <v>35</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="6"/>
+        <v>1.3461538461538463</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="7"/>
+        <v>0.74285714285714277</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="8"/>
+        <v>32.307692307692314</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="9"/>
+        <v>4.2290670336785681</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="10"/>
+        <v>32.307692307692307</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="11"/>
+        <v>29.615384615384613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.2272727272727273</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>24.545454545454547</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>3.8555909839511098</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>24.545454545454547</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>22.090909090909093</v>
+      </c>
+      <c r="I8">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <v>35</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>1.2962962962962963</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="7"/>
+        <v>0.77142857142857146</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="8"/>
+        <v>32.407407407407405</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="9"/>
+        <v>4.0724349213201023</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="10"/>
+        <v>32.407407407407405</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="11"/>
+        <v>29.814814814814813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.173913043478261</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.85185185185185175</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>24.65217391304348</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>3.68795659334454</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>24.65217391304348</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>22.304347826086957</v>
+      </c>
+      <c r="I9">
+        <v>26</v>
+      </c>
+      <c r="J9">
+        <v>35</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="8"/>
+        <v>32.5</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="9"/>
+        <v>3.9269908169872414</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="10"/>
+        <v>32.5</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>24.75</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>3.5342917352885173</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>24.75</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>22.5</v>
+      </c>
+      <c r="I10">
+        <v>27</v>
+      </c>
+      <c r="J10">
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>1.2068965517241379</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="7"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="8"/>
+        <v>32.586206896551722</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="9"/>
+        <v>3.7915773405394053</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="10"/>
+        <v>32.586206896551722</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="11"/>
+        <v>30.172413793103445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.92592592592592582</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>24.840000000000003</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>3.3929200658769769</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>24.840000000000003</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>22.680000000000003</v>
+      </c>
+      <c r="I11">
+        <v>28</v>
+      </c>
+      <c r="J11">
+        <v>35</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="6"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="7"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="8"/>
+        <v>32.666666666666671</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="9"/>
+        <v>3.6651914291880923</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="10"/>
+        <v>32.666666666666671</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="11"/>
+        <v>30.333333333333339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1.0384615384615385</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>24.923076923076923</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>3.262423140266324</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>24.923076923076927</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>22.84615384615385</v>
+      </c>
+      <c r="I12">
+        <v>29</v>
+      </c>
+      <c r="J12">
+        <v>35</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>1.1290322580645162</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="7"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="8"/>
+        <v>32.741935483870968</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="9"/>
+        <v>3.5469594476013797</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="10"/>
+        <v>32.741935483870968</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="11"/>
+        <v>30.483870967741936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="I13">
+        <v>30</v>
+      </c>
+      <c r="J13">
+        <v>35</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>1.09375</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="7"/>
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="8"/>
+        <v>32.8125</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="9"/>
+        <v>3.4361169648638361</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="10"/>
+        <v>32.8125</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="11"/>
+        <v>30.625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>1.037037037037037</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>25.071428571428573</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>3.0293929159615862</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>25.071428571428573</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>23.142857142857146</v>
+      </c>
+      <c r="I14">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="J14">
+        <v>35</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="6"/>
+        <v>1.0606060606060606</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="7"/>
+        <v>0.94285714285714295</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="8"/>
+        <v>32.878787878787875</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="9"/>
+        <v>3.3319922083528106</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="10"/>
+        <v>32.878787878787875</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="11"/>
+        <v>30.757575757575754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.93103448275862066</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>1.0740740740740742</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>25.137931034482754</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>2.9249310912732556</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>25.137931034482758</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>23.275862068965516</v>
+      </c>
+      <c r="I15">
+        <v>32</v>
+      </c>
+      <c r="J15">
+        <v>35</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="6"/>
+        <v>1.0294117647058822</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="7"/>
+        <v>0.97142857142857153</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="8"/>
+        <v>32.941176470588232</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="9"/>
+        <v>3.2339924375189044</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="10"/>
+        <v>32.941176470588232</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="11"/>
+        <v>30.882352941176467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>25.2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>2.8274333882308138</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>25.2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>23.4</v>
+      </c>
+      <c r="I16">
+        <v>33</v>
+      </c>
+      <c r="J16">
+        <v>35</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="9"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="11"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.87096774193548387</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>1.1481481481481481</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>25.258064516129032</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>2.736225859578207</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>25.258064516129032</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>23.516129032258064</v>
+      </c>
+      <c r="I17">
+        <v>34</v>
+      </c>
+      <c r="J17">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="7"/>
+        <v>1.0285714285714287</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="8"/>
+        <v>33.05555555555555</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="9"/>
+        <v>3.0543261909900767</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="10"/>
+        <v>33.055555555555557</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="11"/>
+        <v>31.111111111111114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.84375</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>1.1851851851851851</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>25.3125</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>2.6507188014663878</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>25.3125</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>23.625</v>
+      </c>
+      <c r="I18">
+        <v>35</v>
+      </c>
+      <c r="J18">
+        <v>35</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="6"/>
+        <v>0.94594594594594594</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="7"/>
+        <v>1.0571428571428572</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="8"/>
+        <v>33.108108108108105</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="9"/>
+        <v>2.9717768344768314</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="10"/>
+        <v>33.108108108108105</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="11"/>
+        <v>31.216216216216214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>1.2222222222222221</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>25.363636363636367</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>2.5703939893007401</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>25.363636363636367</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>23.72727272727273</v>
+      </c>
+      <c r="I19">
+        <v>36</v>
+      </c>
+      <c r="J19">
+        <v>35</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="6"/>
+        <v>0.92105263157894735</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="7"/>
+        <v>1.0857142857142856</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="8"/>
+        <v>33.15789473684211</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="9"/>
+        <v>2.8935721809379671</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="10"/>
+        <v>33.157894736842103</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="11"/>
+        <v>31.315789473684209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.79411764705882348</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>1.2592592592592593</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>25.411764705882351</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>2.4947941660860122</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>25.411764705882351</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>23.823529411764703</v>
+      </c>
+      <c r="I20">
+        <v>37</v>
+      </c>
+      <c r="J20">
+        <v>35</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="6"/>
+        <v>0.89743589743589747</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="7"/>
+        <v>1.1142857142857143</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="8"/>
+        <v>33.205128205128204</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="9"/>
+        <v>2.8193780224523786</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="10"/>
+        <v>33.205128205128204</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="11"/>
+        <v>31.410256410256409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.77142857142857146</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>1.2962962962962963</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>25.457142857142859</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>2.423514332769269</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>25.457142857142859</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>23.914285714285715</v>
+      </c>
+      <c r="I21">
+        <v>38</v>
+      </c>
+      <c r="J21">
+        <v>35</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="6"/>
+        <v>0.875</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="7"/>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="8"/>
+        <v>33.25</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="9"/>
+        <v>2.748893571891069</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="10"/>
+        <v>33.25</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="11"/>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>25.5</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>25.5</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="I22">
+        <v>39</v>
+      </c>
+      <c r="J22">
+        <v>35</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="6"/>
+        <v>0.85365853658536583</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="7"/>
+        <v>1.1714285714285715</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="8"/>
+        <v>33.292682926829265</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="9"/>
+        <v>2.6818473872107988</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="10"/>
+        <v>33.292682926829265</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="11"/>
+        <v>31.585365853658534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0.72972972972972971</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>1.3703703703703705</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>25.54054054054054</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>2.292513558024984</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>25.54054054054054</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>24.081081081081081</v>
+      </c>
+      <c r="I23">
+        <v>40</v>
+      </c>
+      <c r="J23">
+        <v>35</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="6"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="8"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="9"/>
+        <v>2.6179938779914944</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="10"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="11"/>
+        <v>31.666666666666668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Gears_Measurements.xlsx
+++ b/Gears_Measurements.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Number of Teeth</t>
   </si>
@@ -53,10 +53,16 @@
     <t>Primitive Diameter/ Base Circle</t>
   </si>
   <si>
-    <t>Gear 2</t>
+    <t>Gear 1 (Intermediate Gear, Intermediate Gear Bottom Level)</t>
   </si>
   <si>
-    <t>Gear 1</t>
+    <t>Gear 2 (Finger Gear)</t>
+  </si>
+  <si>
+    <t>Gear 3 (Intermediate Gear Top Level)</t>
+  </si>
+  <si>
+    <t>Gear 4 (Drive Gear)</t>
   </si>
 </sst>
 </file>
@@ -72,7 +78,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +103,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -110,15 +128,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,26 +450,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -684,33 +708,33 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>18</v>
       </c>
-      <c r="B6" s="3">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="1">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>1.35</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <f t="shared" si="1"/>
         <v>0.7407407407407407</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>24.3</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <f t="shared" si="3"/>
         <v>4.2411500823462207</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <f t="shared" si="4"/>
         <v>24.3</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <f t="shared" si="5"/>
         <v>21.6</v>
       </c>
@@ -776,33 +800,33 @@
         <f t="shared" si="5"/>
         <v>21.857142857142858</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="1">
         <v>24</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="1">
         <v>35</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="1">
         <f t="shared" si="6"/>
         <v>1.3461538461538463</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="1">
         <f t="shared" si="7"/>
         <v>0.74285714285714277</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="1">
         <f t="shared" si="8"/>
         <v>32.307692307692314</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="1">
         <f t="shared" si="9"/>
         <v>4.2290670336785681</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="1">
         <f t="shared" si="10"/>
         <v>32.307692307692307</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="1">
         <f t="shared" si="11"/>
         <v>29.615384615384613</v>
       </c>
@@ -1799,15 +1823,1155 @@
         <v>31.666666666666668</v>
       </c>
     </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <f>B25/(A25+2)</f>
+        <v>2.7272727272727271</v>
+      </c>
+      <c r="D25">
+        <f>1/C25</f>
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="E25">
+        <f>A25/D25</f>
+        <v>24.545454545454543</v>
+      </c>
+      <c r="F25">
+        <f>C25*PI()</f>
+        <v>8.5679799643357981</v>
+      </c>
+      <c r="G25">
+        <f>C25*A25</f>
+        <v>24.545454545454543</v>
+      </c>
+      <c r="H25">
+        <f>G25-2*C25</f>
+        <v>19.09090909090909</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>27</v>
+      </c>
+      <c r="K25">
+        <f>J25/(I25+2)</f>
+        <v>2.7</v>
+      </c>
+      <c r="L25">
+        <f>1/K25</f>
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="M25">
+        <f>I25/L25</f>
+        <v>21.6</v>
+      </c>
+      <c r="N25">
+        <f>K25*PI()</f>
+        <v>8.4823001646924414</v>
+      </c>
+      <c r="O25">
+        <f>K25*I25</f>
+        <v>21.6</v>
+      </c>
+      <c r="P25">
+        <f>O25-2*K25</f>
+        <v>16.200000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <f>B26/(A26+2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="D26">
+        <f>1/C26</f>
+        <v>0.4</v>
+      </c>
+      <c r="E26">
+        <f>A26/D26</f>
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <f>C26*PI()</f>
+        <v>7.8539816339744828</v>
+      </c>
+      <c r="G26">
+        <f>C26*A26</f>
+        <v>25</v>
+      </c>
+      <c r="H26">
+        <f>G26-2*C26</f>
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>9</v>
+      </c>
+      <c r="J26">
+        <v>27</v>
+      </c>
+      <c r="K26">
+        <f>J26/(I26+2)</f>
+        <v>2.4545454545454546</v>
+      </c>
+      <c r="L26">
+        <f>1/K26</f>
+        <v>0.40740740740740738</v>
+      </c>
+      <c r="M26">
+        <f>I26/L26</f>
+        <v>22.090909090909093</v>
+      </c>
+      <c r="N26">
+        <f>K26*PI()</f>
+        <v>7.7111819679022195</v>
+      </c>
+      <c r="O26">
+        <f>K26*I26</f>
+        <v>22.09090909090909</v>
+      </c>
+      <c r="P26">
+        <f>O26-2*K26</f>
+        <v>17.18181818181818</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:C42" si="12">B27/(A27+2)</f>
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:D42" si="13">1/C27</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27:E42" si="14">A27/D27</f>
+        <v>25.384615384615383</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:F42" si="15">C27*PI()</f>
+        <v>7.2498292005918294</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G42" si="16">C27*A27</f>
+        <v>25.384615384615383</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H42" si="17">G27-2*C27</f>
+        <v>20.769230769230766</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>27</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:K42" si="18">J27/(I27+2)</f>
+        <v>2.25</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ref="L27:L42" si="19">1/K27</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="M27:M42" si="20">I27/L27</f>
+        <v>22.5</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27:N42" si="21">K27*PI()</f>
+        <v>7.0685834705770345</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ref="O27:O42" si="22">K27*I27</f>
+        <v>22.5</v>
+      </c>
+      <c r="P27">
+        <f t="shared" ref="P27:P42" si="23">O27-2*K27</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="12"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="13"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="14"/>
+        <v>25.714285714285715</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="15"/>
+        <v>6.7319842576924138</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="16"/>
+        <v>25.714285714285715</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="17"/>
+        <v>21.428571428571431</v>
+      </c>
+      <c r="I28">
+        <v>11</v>
+      </c>
+      <c r="J28">
+        <v>27</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="18"/>
+        <v>2.0769230769230771</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="19"/>
+        <v>0.48148148148148145</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="20"/>
+        <v>22.846153846153847</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="21"/>
+        <v>6.5248462805326479</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="22"/>
+        <v>22.846153846153847</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="23"/>
+        <v>18.692307692307693</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="15"/>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="16"/>
+        <v>26</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="17"/>
+        <v>22</v>
+      </c>
+      <c r="I29">
+        <v>12</v>
+      </c>
+      <c r="J29">
+        <v>27</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="18"/>
+        <v>1.9285714285714286</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="19"/>
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="20"/>
+        <v>23.142857142857146</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="21"/>
+        <v>6.0587858319231724</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="22"/>
+        <v>23.142857142857142</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="23"/>
+        <v>19.285714285714285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="12"/>
+        <v>1.875</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="13"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="14"/>
+        <v>26.25</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="15"/>
+        <v>5.8904862254808616</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="16"/>
+        <v>26.25</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="17"/>
+        <v>22.5</v>
+      </c>
+      <c r="I30">
+        <v>13</v>
+      </c>
+      <c r="J30">
+        <v>27</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="18"/>
+        <v>1.8</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="19"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="20"/>
+        <v>23.4</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="21"/>
+        <v>5.6548667764616276</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="22"/>
+        <v>23.400000000000002</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="23"/>
+        <v>19.8</v>
+      </c>
+    </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="12"/>
+        <v>1.7647058823529411</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="13"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="14"/>
+        <v>26.47058823529412</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="15"/>
+        <v>5.5439870357466932</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="16"/>
+        <v>26.470588235294116</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="17"/>
+        <v>22.941176470588232</v>
+      </c>
+      <c r="I31">
+        <v>14</v>
+      </c>
+      <c r="J31">
+        <v>27</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="18"/>
+        <v>1.6875</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="19"/>
+        <v>0.59259259259259256</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="20"/>
+        <v>23.625</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="21"/>
+        <v>5.3014376029327757</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="22"/>
+        <v>23.625</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="23"/>
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="12"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="13"/>
+        <v>0.6</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="14"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="15"/>
+        <v>5.2359877559829888</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="16"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="17"/>
+        <v>23.333333333333336</v>
+      </c>
+      <c r="I32">
+        <v>15</v>
+      </c>
+      <c r="J32">
+        <v>27</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="18"/>
+        <v>1.588235294117647</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="19"/>
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="20"/>
+        <v>23.823529411764707</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="21"/>
+        <v>4.9895883321720245</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="22"/>
+        <v>23.823529411764703</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="23"/>
+        <v>20.647058823529409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="12"/>
+        <v>1.5789473684210527</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="13"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="14"/>
+        <v>26.842105263157897</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="15"/>
+        <v>4.9604094530365153</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="16"/>
+        <v>26.842105263157894</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="17"/>
+        <v>23.684210526315788</v>
+      </c>
+      <c r="I33" s="1">
+        <v>16</v>
+      </c>
+      <c r="J33" s="1">
+        <v>27</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="18"/>
+        <v>1.5</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="19"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="20"/>
+        <v>24</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="21"/>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="22"/>
+        <v>24</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="23"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>18</v>
+      </c>
+      <c r="B34" s="1">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="13"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="14"/>
+        <v>27</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="15"/>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="16"/>
+        <v>27</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="17"/>
+        <v>24</v>
+      </c>
+      <c r="I34">
+        <v>17</v>
+      </c>
+      <c r="J34">
+        <v>27</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="18"/>
+        <v>1.4210526315789473</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="19"/>
+        <v>0.70370370370370372</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="20"/>
+        <v>24.157894736842106</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="21"/>
+        <v>4.4643685077328641</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="22"/>
+        <v>24.157894736842106</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="23"/>
+        <v>21.315789473684212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>19</v>
+      </c>
+      <c r="B35">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="12"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="13"/>
+        <v>0.7</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="14"/>
+        <v>27.142857142857146</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="15"/>
+        <v>4.4879895051282759</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="16"/>
+        <v>27.142857142857142</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="17"/>
+        <v>24.285714285714285</v>
+      </c>
+      <c r="I35">
+        <v>18</v>
+      </c>
+      <c r="J35">
+        <v>27</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="18"/>
+        <v>1.35</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="19"/>
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="20"/>
+        <v>24.3</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="21"/>
+        <v>4.2411500823462207</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="22"/>
+        <v>24.3</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="23"/>
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="12"/>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="13"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="14"/>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="15"/>
+        <v>4.2839899821678991</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="16"/>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="17"/>
+        <v>24.545454545454543</v>
+      </c>
+      <c r="I36">
+        <v>19</v>
+      </c>
+      <c r="J36">
+        <v>27</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="18"/>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="19"/>
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="20"/>
+        <v>24.428571428571431</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="21"/>
+        <v>4.0391905546154483</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="22"/>
+        <v>24.428571428571431</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="23"/>
+        <v>21.857142857142858</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="12"/>
+        <v>1.3043478260869565</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="13"/>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="14"/>
+        <v>27.39130434782609</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="15"/>
+        <v>4.0977295481605998</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="16"/>
+        <v>27.391304347826086</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="17"/>
+        <v>24.782608695652172</v>
+      </c>
+      <c r="I37">
+        <v>20</v>
+      </c>
+      <c r="J37">
+        <v>27</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="18"/>
+        <v>1.2272727272727273</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="19"/>
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="20"/>
+        <v>24.545454545454547</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="21"/>
+        <v>3.8555909839511098</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="22"/>
+        <v>24.545454545454547</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="23"/>
+        <v>22.090909090909093</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="12"/>
+        <v>1.25</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="13"/>
+        <v>0.8</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="14"/>
+        <v>27.5</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="15"/>
+        <v>3.9269908169872414</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="16"/>
+        <v>27.5</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="I38">
+        <v>21</v>
+      </c>
+      <c r="J38">
+        <v>27</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="18"/>
+        <v>1.173913043478261</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="19"/>
+        <v>0.85185185185185175</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="20"/>
+        <v>24.65217391304348</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="21"/>
+        <v>3.68795659334454</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="22"/>
+        <v>24.65217391304348</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="23"/>
+        <v>22.304347826086957</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="12"/>
+        <v>1.2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="13"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="14"/>
+        <v>27.599999999999998</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="15"/>
+        <v>3.7699111843077517</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="16"/>
+        <v>27.599999999999998</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="17"/>
+        <v>25.2</v>
+      </c>
+      <c r="I39">
+        <v>22</v>
+      </c>
+      <c r="J39">
+        <v>27</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="18"/>
+        <v>1.125</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="19"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="20"/>
+        <v>24.75</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="21"/>
+        <v>3.5342917352885173</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="22"/>
+        <v>24.75</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="23"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>24</v>
+      </c>
+      <c r="B40">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="12"/>
+        <v>1.1538461538461537</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="13"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="14"/>
+        <v>27.69230769230769</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="15"/>
+        <v>3.6249146002959147</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="16"/>
+        <v>27.69230769230769</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="17"/>
+        <v>25.384615384615383</v>
+      </c>
+      <c r="I40">
+        <v>23</v>
+      </c>
+      <c r="J40">
+        <v>27</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="18"/>
+        <v>1.08</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="19"/>
+        <v>0.92592592592592582</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="20"/>
+        <v>24.840000000000003</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="21"/>
+        <v>3.3929200658769769</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="22"/>
+        <v>24.840000000000003</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="23"/>
+        <v>22.680000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>25</v>
+      </c>
+      <c r="B41">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="12"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="13"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="14"/>
+        <v>27.777777777777782</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="15"/>
+        <v>3.4906585039886591</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="16"/>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="17"/>
+        <v>25.555555555555557</v>
+      </c>
+      <c r="I41">
+        <v>24</v>
+      </c>
+      <c r="J41">
+        <v>27</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="18"/>
+        <v>1.0384615384615385</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="19"/>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="20"/>
+        <v>24.923076923076923</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="21"/>
+        <v>3.262423140266324</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="22"/>
+        <v>24.923076923076927</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="23"/>
+        <v>22.84615384615385</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="12"/>
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="13"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="14"/>
+        <v>27.857142857142858</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="15"/>
+        <v>3.3659921288462069</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="16"/>
+        <v>27.857142857142858</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="17"/>
+        <v>25.714285714285715</v>
+      </c>
+      <c r="I42">
+        <v>25</v>
+      </c>
+      <c r="J42">
+        <v>27</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="20"/>
+        <v>25</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="21"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="23"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="I1:P1"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="I24:P24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Gears_Measurements.xlsx
+++ b/Gears_Measurements.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1977,27 +1977,27 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:C42" si="12">B27/(A27+2)</f>
+        <f t="shared" ref="C27:C43" si="12">B27/(A27+2)</f>
         <v>2.3076923076923075</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:D42" si="13">1/C27</f>
+        <f t="shared" ref="D27:D43" si="13">1/C27</f>
         <v>0.43333333333333335</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27:E42" si="14">A27/D27</f>
+        <f t="shared" ref="E27:E43" si="14">A27/D27</f>
         <v>25.384615384615383</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F27:F42" si="15">C27*PI()</f>
+        <f t="shared" ref="F27:F43" si="15">C27*PI()</f>
         <v>7.2498292005918294</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:G42" si="16">C27*A27</f>
+        <f t="shared" ref="G27:G43" si="16">C27*A27</f>
         <v>25.384615384615383</v>
       </c>
       <c r="H27">
-        <f t="shared" ref="H27:H42" si="17">G27-2*C27</f>
+        <f t="shared" ref="H27:H43" si="17">G27-2*C27</f>
         <v>20.769230769230766</v>
       </c>
       <c r="I27">
@@ -2959,6 +2959,38 @@
       <c r="P42">
         <f t="shared" si="23"/>
         <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <v>31</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="12"/>
+        <v>1.9375</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="13"/>
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="14"/>
+        <v>27.125</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="15"/>
+        <v>6.0868357663302239</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="16"/>
+        <v>27.125</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="17"/>
+        <v>23.25</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
